--- a/TestFIle.xlsx
+++ b/TestFIle.xlsx
@@ -49,10 +49,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,17 +83,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,7 +380,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +413,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -425,6 +438,9 @@
       <c r="I6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>